--- a/data_year/zb/公共管理、社会保障及其他/交通事故/交通事故受伤人数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/交通事故/交通事故受伤人数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,811 +493,455 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>418721</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>254075</v>
+      </c>
+      <c r="C2" t="n">
+        <v>80</v>
+      </c>
       <c r="D2" t="n">
-        <v>12170</v>
+        <v>5076</v>
       </c>
       <c r="E2" t="n">
-        <v>82475</v>
+        <v>66298</v>
       </c>
       <c r="F2" t="n">
-        <v>388027</v>
+        <v>241823</v>
       </c>
       <c r="G2" t="n">
-        <v>267575</v>
+        <v>167897</v>
       </c>
       <c r="H2" t="n">
-        <v>8445</v>
+        <v>3636</v>
       </c>
       <c r="I2" t="n">
-        <v>12340</v>
+        <v>1853</v>
       </c>
       <c r="J2" t="n">
-        <v>13069</v>
+        <v>1576</v>
       </c>
       <c r="K2" t="n">
-        <v>45547</v>
+        <v>33964</v>
       </c>
       <c r="L2" t="n">
-        <v>16053</v>
+        <v>10596</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>546485</v>
+        <v>237421</v>
       </c>
       <c r="C3" t="n">
-        <v>1197</v>
+        <v>73</v>
       </c>
       <c r="D3" t="n">
-        <v>14304</v>
+        <v>3891</v>
       </c>
       <c r="E3" t="n">
-        <v>124847</v>
+        <v>59455</v>
       </c>
       <c r="F3" t="n">
-        <v>508308</v>
+        <v>224619</v>
       </c>
       <c r="G3" t="n">
-        <v>342379</v>
+        <v>159195</v>
       </c>
       <c r="H3" t="n">
-        <v>9399</v>
+        <v>4198</v>
       </c>
       <c r="I3" t="n">
-        <v>16407</v>
+        <v>1428</v>
       </c>
       <c r="J3" t="n">
-        <v>16447</v>
+        <v>1348</v>
       </c>
       <c r="K3" t="n">
-        <v>53894</v>
+        <v>31420</v>
       </c>
       <c r="L3" t="n">
-        <v>20533</v>
+        <v>11381</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>562074</v>
+        <v>224327</v>
       </c>
       <c r="C4" t="n">
-        <v>47240</v>
+        <v>64</v>
       </c>
       <c r="D4" t="n">
-        <v>15141</v>
+        <v>3341</v>
       </c>
       <c r="E4" t="n">
-        <v>131449</v>
+        <v>53366</v>
       </c>
       <c r="F4" t="n">
-        <v>479452</v>
+        <v>210554</v>
       </c>
       <c r="G4" t="n">
-        <v>351095</v>
+        <v>152478</v>
       </c>
       <c r="H4" t="n">
-        <v>10374</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>14021</v>
+        <v>1354</v>
       </c>
       <c r="J4" t="n">
-        <v>16144</v>
+        <v>1168</v>
       </c>
       <c r="K4" t="n">
-        <v>56830</v>
+        <v>364</v>
       </c>
       <c r="L4" t="n">
-        <v>19238</v>
+        <v>12541</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>494174</v>
+        <v>213724</v>
       </c>
       <c r="C5" t="n">
-        <v>2802</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>11882</v>
+        <v>2833</v>
       </c>
       <c r="E5" t="n">
-        <v>111797</v>
+        <v>50635</v>
       </c>
       <c r="F5" t="n">
-        <v>462427</v>
+        <v>198317</v>
       </c>
       <c r="G5" t="n">
-        <v>310963</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8167</v>
-      </c>
+        <v>143672</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>12149</v>
+        <v>1209</v>
       </c>
       <c r="J5" t="n">
-        <v>14027</v>
+        <v>1086</v>
       </c>
       <c r="K5" t="n">
-        <v>50116</v>
+        <v>259</v>
       </c>
       <c r="L5" t="n">
-        <v>14918</v>
+        <v>14261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>480864</v>
+        <v>211882</v>
       </c>
       <c r="C6" t="n">
-        <v>11649</v>
+        <v>91</v>
       </c>
       <c r="D6" t="n">
-        <v>11417</v>
+        <v>2260</v>
       </c>
       <c r="E6" t="n">
-        <v>125622</v>
+        <v>49727</v>
       </c>
       <c r="F6" t="n">
-        <v>446690</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+        <v>194887</v>
+      </c>
+      <c r="G6" t="n">
+        <v>141718</v>
+      </c>
+      <c r="H6" t="n">
+        <v>17</v>
+      </c>
       <c r="I6" t="n">
-        <v>9171</v>
+        <v>1284</v>
       </c>
       <c r="J6" t="n">
-        <v>8327</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>1167</v>
+      </c>
+      <c r="K6" t="n">
+        <v>114</v>
+      </c>
       <c r="L6" t="n">
-        <v>14198</v>
+        <v>15737</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>469911</v>
+        <v>199880</v>
       </c>
       <c r="C7" t="n">
-        <v>470</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
-        <v>10197</v>
+        <v>2047</v>
       </c>
       <c r="E7" t="n">
-        <v>132124</v>
+        <v>45467</v>
       </c>
       <c r="F7" t="n">
-        <v>443361</v>
+        <v>181528</v>
       </c>
       <c r="G7" t="n">
-        <v>300837</v>
+        <v>132925</v>
       </c>
       <c r="H7" t="n">
-        <v>5627</v>
+        <v>11</v>
       </c>
       <c r="I7" t="n">
-        <v>7612</v>
+        <v>1298</v>
       </c>
       <c r="J7" t="n">
-        <v>12406</v>
+        <v>1117</v>
       </c>
       <c r="K7" t="n">
-        <v>47927</v>
+        <v>123</v>
       </c>
       <c r="L7" t="n">
-        <v>13674</v>
+        <v>17160</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>431139</v>
+        <v>226430</v>
       </c>
       <c r="C8" t="n">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="D8" t="n">
-        <v>11319</v>
+        <v>2203</v>
       </c>
       <c r="E8" t="n">
-        <v>126113</v>
+        <v>52528</v>
       </c>
       <c r="F8" t="n">
-        <v>412193</v>
+        <v>205355</v>
       </c>
       <c r="G8" t="n">
-        <v>256514</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5024</v>
-      </c>
+        <v>149433</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>6314</v>
+        <v>1337</v>
       </c>
       <c r="J8" t="n">
-        <v>5336</v>
-      </c>
-      <c r="K8" t="n">
-        <v>46789</v>
-      </c>
+        <v>1322</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>13441</v>
+        <v>19678</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>380442</v>
+        <v>209654</v>
       </c>
       <c r="C9" t="n">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="D9" t="n">
-        <v>9721</v>
+        <v>1776</v>
       </c>
       <c r="E9" t="n">
-        <v>106989</v>
+        <v>46504</v>
       </c>
       <c r="F9" t="n">
-        <v>363428</v>
+        <v>188585</v>
       </c>
       <c r="G9" t="n">
-        <v>243122</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4508</v>
-      </c>
+        <v>139180</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>4680</v>
+        <v>1450</v>
       </c>
       <c r="J9" t="n">
-        <v>3994</v>
-      </c>
-      <c r="K9" t="n">
-        <v>42602</v>
-      </c>
+        <v>1347</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>12954</v>
+        <v>19619</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>304919</v>
+        <v>258532</v>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="D10" t="n">
-        <v>7240</v>
+        <v>2114</v>
       </c>
       <c r="E10" t="n">
-        <v>83435</v>
+        <v>55071</v>
       </c>
       <c r="F10" t="n">
-        <v>291423</v>
+        <v>227438</v>
       </c>
       <c r="G10" t="n">
-        <v>197733</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3359</v>
-      </c>
+        <v>169046</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>3144</v>
+        <v>1720</v>
       </c>
       <c r="J10" t="n">
-        <v>2791</v>
-      </c>
-      <c r="K10" t="n">
-        <v>38002</v>
-      </c>
+        <v>1968</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>10669</v>
+        <v>28987</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>275125</v>
+        <v>256101</v>
       </c>
       <c r="C11" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="D11" t="n">
-        <v>6432</v>
+        <v>1811</v>
       </c>
       <c r="E11" t="n">
-        <v>74825</v>
+        <v>53710</v>
       </c>
       <c r="F11" t="n">
-        <v>262254</v>
+        <v>221309</v>
       </c>
       <c r="G11" t="n">
-        <v>178545</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3530</v>
-      </c>
+        <v>157157</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>2424</v>
+        <v>2179</v>
       </c>
       <c r="J11" t="n">
-        <v>1836</v>
-      </c>
-      <c r="K11" t="n">
-        <v>35240</v>
-      </c>
+        <v>2305</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>10960</v>
+        <v>32347</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>254075</v>
+        <v>250723</v>
       </c>
       <c r="C12" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D12" t="n">
-        <v>5076</v>
+        <v>1490</v>
       </c>
       <c r="E12" t="n">
-        <v>66298</v>
+        <v>53582</v>
       </c>
       <c r="F12" t="n">
-        <v>241823</v>
+        <v>214442</v>
       </c>
       <c r="G12" t="n">
-        <v>167897</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3636</v>
-      </c>
+        <v>152276</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>1853</v>
+        <v>2518</v>
       </c>
       <c r="J12" t="n">
-        <v>1576</v>
-      </c>
-      <c r="K12" t="n">
-        <v>33964</v>
-      </c>
+        <v>2485</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>10596</v>
+        <v>33636</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>237421</v>
+        <v>281447</v>
       </c>
       <c r="C13" t="n">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="D13" t="n">
-        <v>3891</v>
+        <v>1483</v>
       </c>
       <c r="E13" t="n">
-        <v>59455</v>
+        <v>61122</v>
       </c>
       <c r="F13" t="n">
-        <v>224619</v>
+        <v>238035</v>
       </c>
       <c r="G13" t="n">
-        <v>159195</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4198</v>
-      </c>
+        <v>166473</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>1428</v>
+        <v>2772</v>
       </c>
       <c r="J13" t="n">
-        <v>1348</v>
-      </c>
-      <c r="K13" t="n">
-        <v>31420</v>
-      </c>
+        <v>3107</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>11381</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>224327</v>
-      </c>
-      <c r="C14" t="n">
-        <v>64</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3341</v>
-      </c>
-      <c r="E14" t="n">
-        <v>53366</v>
-      </c>
-      <c r="F14" t="n">
-        <v>210554</v>
-      </c>
-      <c r="G14" t="n">
-        <v>152478</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1354</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1168</v>
-      </c>
-      <c r="K14" t="n">
-        <v>364</v>
-      </c>
-      <c r="L14" t="n">
-        <v>12541</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>213724</v>
-      </c>
-      <c r="C15" t="n">
-        <v>60</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2833</v>
-      </c>
-      <c r="E15" t="n">
-        <v>50635</v>
-      </c>
-      <c r="F15" t="n">
-        <v>198317</v>
-      </c>
-      <c r="G15" t="n">
-        <v>143672</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>1209</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1086</v>
-      </c>
-      <c r="K15" t="n">
-        <v>259</v>
-      </c>
-      <c r="L15" t="n">
-        <v>14261</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>211882</v>
-      </c>
-      <c r="C16" t="n">
-        <v>91</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2260</v>
-      </c>
-      <c r="E16" t="n">
-        <v>49727</v>
-      </c>
-      <c r="F16" t="n">
-        <v>194887</v>
-      </c>
-      <c r="G16" t="n">
-        <v>141718</v>
-      </c>
-      <c r="H16" t="n">
-        <v>17</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1284</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1167</v>
-      </c>
-      <c r="K16" t="n">
-        <v>114</v>
-      </c>
-      <c r="L16" t="n">
-        <v>15737</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>199880</v>
-      </c>
-      <c r="C17" t="n">
-        <v>75</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2047</v>
-      </c>
-      <c r="E17" t="n">
-        <v>45467</v>
-      </c>
-      <c r="F17" t="n">
-        <v>181528</v>
-      </c>
-      <c r="G17" t="n">
-        <v>132925</v>
-      </c>
-      <c r="H17" t="n">
-        <v>11</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1298</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1117</v>
-      </c>
-      <c r="K17" t="n">
-        <v>123</v>
-      </c>
-      <c r="L17" t="n">
-        <v>17160</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>226430</v>
-      </c>
-      <c r="C18" t="n">
-        <v>75</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2203</v>
-      </c>
-      <c r="E18" t="n">
-        <v>52528</v>
-      </c>
-      <c r="F18" t="n">
-        <v>205355</v>
-      </c>
-      <c r="G18" t="n">
-        <v>149433</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>1337</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1322</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>19678</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>209654</v>
-      </c>
-      <c r="C19" t="n">
-        <v>103</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1776</v>
-      </c>
-      <c r="E19" t="n">
-        <v>46504</v>
-      </c>
-      <c r="F19" t="n">
-        <v>188585</v>
-      </c>
-      <c r="G19" t="n">
-        <v>139180</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>1450</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1347</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>19619</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>258532</v>
-      </c>
-      <c r="C20" t="n">
-        <v>139</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2114</v>
-      </c>
-      <c r="E20" t="n">
-        <v>55071</v>
-      </c>
-      <c r="F20" t="n">
-        <v>227438</v>
-      </c>
-      <c r="G20" t="n">
-        <v>169046</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>1720</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1968</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>28987</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>256101</v>
-      </c>
-      <c r="C21" t="n">
-        <v>140</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1811</v>
-      </c>
-      <c r="E21" t="n">
-        <v>53710</v>
-      </c>
-      <c r="F21" t="n">
-        <v>221309</v>
-      </c>
-      <c r="G21" t="n">
-        <v>157157</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>2179</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2305</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>32347</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>250723</v>
-      </c>
-      <c r="C22" t="n">
-        <v>160</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1490</v>
-      </c>
-      <c r="E22" t="n">
-        <v>53582</v>
-      </c>
-      <c r="F22" t="n">
-        <v>214442</v>
-      </c>
-      <c r="G22" t="n">
-        <v>152276</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
-        <v>2518</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2485</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>33636</v>
+        <v>40156</v>
       </c>
     </row>
   </sheetData>
